--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="193">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,42 @@
   </si>
   <si>
     <t>谷歌项目贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>droplet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital microfluidics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain Machine Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain Computer Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Minging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content protection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital watermarking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +974,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,6 +1020,15 @@
       <c r="C2" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -995,6 +1040,15 @@
       <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1006,6 +1060,9 @@
       <c r="C4" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1016,6 +1073,18 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">

--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,9 +444,6 @@
     <t>Untangling Code</t>
   </si>
   <si>
-    <t>生物特征识别技术</t>
-  </si>
-  <si>
     <t>Biometrics</t>
   </si>
   <si>
@@ -629,6 +626,60 @@
   </si>
   <si>
     <t>Digital watermarking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senmamtic web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computational linguistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine tranalation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspect-orinted programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reactive programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functional-reactive programming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物统计学</t>
+  </si>
+  <si>
+    <t>soft biometrics</t>
+  </si>
+  <si>
+    <t>fingerprint</t>
+  </si>
+  <si>
+    <t>cancelable biometrics</t>
+  </si>
+  <si>
+    <t>multimodal biometrics</t>
+  </si>
+  <si>
+    <t>face recognition</t>
+  </si>
+  <si>
+    <t>intergrated optics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveguides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light-matter interactions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +717,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -687,10 +744,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -971,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -982,12 +1043,12 @@
     <col min="1" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1024,13 +1085,13 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>184</v>
       </c>
-      <c r="F2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -1041,16 +1102,16 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
         <v>186</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>187</v>
       </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -1061,10 +1122,10 @@
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -1078,16 +1139,16 @@
         <v>129</v>
       </c>
       <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="s">
         <v>190</v>
       </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1097,8 +1158,20 @@
       <c r="C6" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1108,104 +1181,146 @@
       <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2001</v>
       </c>
       <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2001</v>
       </c>
       <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2002</v>
       </c>
       <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2002</v>
       </c>
       <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2002</v>
       </c>
       <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2002</v>
       </c>
       <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2002</v>
       </c>
       <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,10 +1328,10 @@
         <v>2002</v>
       </c>
       <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,10 +1339,10 @@
         <v>2002</v>
       </c>
       <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1350,10 @@
         <v>2002</v>
       </c>
       <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,10 +1361,10 @@
         <v>2002</v>
       </c>
       <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,10 +1372,10 @@
         <v>2002</v>
       </c>
       <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,7 +1581,7 @@
         <v>2013</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
@@ -1620,7 +1735,7 @@
         <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>69</v>
@@ -1917,10 +2032,10 @@
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1928,10 +2043,10 @@
         <v>2018</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1939,10 +2054,10 @@
         <v>2018</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1950,10 +2065,10 @@
         <v>2018</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,10 +2076,10 @@
         <v>2018</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,10 +2087,10 @@
         <v>2018</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,10 +2098,10 @@
         <v>2018</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1994,10 +2109,10 @@
         <v>2018</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2005,10 +2120,10 @@
         <v>2018</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2016,10 +2131,10 @@
         <v>2018</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="233">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +680,92 @@
   </si>
   <si>
     <t>light-matter interactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flexible electronics</t>
+  </si>
+  <si>
+    <t>thin-film transistors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot design</t>
+  </si>
+  <si>
+    <t>human-robot interaction</t>
+  </si>
+  <si>
+    <t>humanoid robots</t>
+  </si>
+  <si>
+    <t>mobile robot</t>
+  </si>
+  <si>
+    <t>Injectable Tissue Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Injectable hydrogel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software assurance</t>
+  </si>
+  <si>
+    <t>grid computing</t>
+  </si>
+  <si>
+    <t>Nano photovoltaic cells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechatronics education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud computing</t>
+  </si>
+  <si>
+    <t>distributed computing</t>
+  </si>
+  <si>
+    <t>ogsa</t>
+  </si>
+  <si>
+    <t>globus（项目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> uv nanoimprint lithography</t>
+  </si>
+  <si>
+    <t>uvnil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoimprint  </t>
+  </si>
+  <si>
+    <t>software quality</t>
+  </si>
+  <si>
+    <t>glycosylation</t>
+  </si>
+  <si>
+    <t>glycobiology</t>
+  </si>
+  <si>
+    <t>glycoinformatics</t>
+  </si>
+  <si>
+    <t>bb84 protocol</t>
+  </si>
+  <si>
+    <t>quantum key distribution</t>
+  </si>
+  <si>
+    <t>QKD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +809,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -744,12 +837,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,13 +1130,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
@@ -1256,6 +1353,15 @@
       <c r="C10" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1267,10 +1373,22 @@
       <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B12" t="s">
         <v>140</v>
@@ -1278,10 +1396,22 @@
       <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B13" t="s">
         <v>142</v>
@@ -1289,10 +1419,16 @@
       <c r="C13" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
@@ -1300,21 +1436,40 @@
       <c r="C14" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B16" t="s">
         <v>148</v>
@@ -1322,10 +1477,13 @@
       <c r="C16" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B17" t="s">
         <v>150</v>
@@ -1333,10 +1491,16 @@
       <c r="C17" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B18" t="s">
         <v>152</v>
@@ -1344,10 +1508,22 @@
       <c r="C18" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B19" t="s">
         <v>154</v>
@@ -1355,10 +1531,13 @@
       <c r="C19" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B20" t="s">
         <v>156</v>
@@ -1366,10 +1545,25 @@
       <c r="C20" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B21" t="s">
         <v>158</v>
@@ -1377,8 +1571,14 @@
       <c r="C21" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -1389,7 +1589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -1400,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -1411,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -1422,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -1433,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -1444,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1455,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -1466,7 +1666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -1477,7 +1677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2012</v>
       </c>
@@ -1488,7 +1688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2013</v>
       </c>

--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="253">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,13 +767,83 @@
   <si>
     <t>QKD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Speed Materials </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy storage material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rapid battery Materials </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">battery Materials </t>
+  </si>
+  <si>
+    <t>solar cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast fourier transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm for  fourier transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid-state nanopore</t>
+  </si>
+  <si>
+    <t>protein nanopore</t>
+  </si>
+  <si>
+    <t>Nanopore Sequencing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene Nanopore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finfet</t>
+  </si>
+  <si>
+    <t>cmos</t>
+  </si>
+  <si>
+    <t>3-d ic</t>
+  </si>
+  <si>
+    <t>computational photography</t>
+  </si>
+  <si>
+    <t>digital refocusing</t>
+  </si>
+  <si>
+    <t>light field imaging</t>
+  </si>
+  <si>
+    <t>light field camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +886,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -837,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -848,6 +925,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1130,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1588,6 +1666,18 @@
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1596,7 +1686,16 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1610,6 +1709,9 @@
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1621,6 +1723,9 @@
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1632,6 +1737,12 @@
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1643,6 +1754,9 @@
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1652,7 +1766,19 @@
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1662,7 +1788,7 @@
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1676,6 +1802,18 @@
       <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1686,6 +1824,21 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">

--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="271">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,6 +837,65 @@
   </si>
   <si>
     <t>light field camera</t>
+  </si>
+  <si>
+    <t>smart watch</t>
+  </si>
+  <si>
+    <t>Big Data from Cheap Phones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>mobile phone data analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar Microgrids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（文本主题识别，只使用关键词的办法很难做到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>feature learning</t>
+  </si>
+  <si>
+    <t>neural network</t>
+  </si>
+  <si>
+    <t>big data</t>
+  </si>
+  <si>
+    <t>high-power circuit breaker</t>
+  </si>
+  <si>
+    <t>hvdc transmission</t>
+  </si>
+  <si>
+    <t>hvdc circuit breakers</t>
+  </si>
+  <si>
+    <t>hv sf6 circuit breaker</t>
+  </si>
+  <si>
+    <t>讨论机器人与人类的社会冲突：他会不会造成大量失业问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d printing</t>
+  </si>
+  <si>
+    <t>selective laser melting</t>
+  </si>
+  <si>
+    <t>Rapid Prototyping Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -1208,16 +1267,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
@@ -1707,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1852,7 +1911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -1862,8 +1921,14 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -1873,30 +1938,48 @@
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2013</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2013</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2013</v>
       </c>
@@ -1906,8 +1989,23 @@
       <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -1917,8 +2015,23 @@
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -1928,8 +2041,11 @@
       <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2013</v>
       </c>
@@ -1939,8 +2055,20 @@
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2014</v>
       </c>
@@ -1951,7 +2079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -1962,7 +2090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -1973,7 +2101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2014</v>
       </c>
@@ -1984,7 +2112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -1995,7 +2123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -2006,7 +2134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -2017,7 +2145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2014</v>
       </c>

--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="655">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,9 +111,6 @@
     <t>胎儿 DNA 测序</t>
   </si>
   <si>
-    <t>Prenatal DNA Sequencing</t>
-  </si>
-  <si>
     <t>Smart Watches</t>
   </si>
   <si>
@@ -154,10 +151,6 @@
     <t>巴克斯特：蓝领机器人</t>
   </si>
   <si>
-    <t>Baxter: The Blue-Collar Robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Additive Manufacturing</t>
   </si>
   <si>
@@ -317,9 +310,6 @@
     <t>强化学习</t>
   </si>
   <si>
-    <t>Reinforcement Learning</t>
-  </si>
-  <si>
     <t>免疫工程</t>
   </si>
   <si>
@@ -559,10 +549,6 @@
     <t>增材制造</t>
   </si>
   <si>
-    <t>谷歌项目贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>droplet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,10 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（文本主题识别，只使用关键词的办法很难做到）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>neural network</t>
   </si>
   <si>
@@ -846,10 +828,6 @@
     <t>hv sf6 circuit breaker</t>
   </si>
   <si>
-    <t>讨论机器人与人类的社会冲突：他会不会造成大量失业问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3d printing</t>
   </si>
   <si>
@@ -1002,10 +980,6 @@
   </si>
   <si>
     <t>mobile Pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没找到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1106,31 +1080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>automatic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF999999"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2B77C5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pilot</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wireless power supply</t>
   </si>
   <si>
@@ -1478,10 +1427,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>$100 Genome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纳米压电传感器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1538,10 +1483,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Crash-Proof Code</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Universal Authentication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1783,13 +1724,6 @@
     <t>移动 3D</t>
   </si>
   <si>
-    <t>High-Speed Materials Discovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速材料的发现</t>
-  </si>
-  <si>
     <t>癌症基因组学</t>
   </si>
   <si>
@@ -2048,13 +1982,252 @@
   </si>
   <si>
     <t>exoglucanase</t>
+  </si>
+  <si>
+    <t>nuclear transmutation</t>
+  </si>
+  <si>
+    <t>Traveling wave</t>
+  </si>
+  <si>
+    <t>Traveling wave Reactor</t>
+  </si>
+  <si>
+    <t>Intelligent  Software Assistant</t>
+  </si>
+  <si>
+    <t>virtual  assistant</t>
+  </si>
+  <si>
+    <t>Automated personal assistant</t>
+  </si>
+  <si>
+    <t>personal assistant software</t>
+  </si>
+  <si>
+    <t>hash function cache</t>
+  </si>
+  <si>
+    <t>store frequently acessed web content</t>
+  </si>
+  <si>
+    <t>Random Access Memory hash</t>
+  </si>
+  <si>
+    <t>Bandwidth saving hash</t>
+  </si>
+  <si>
+    <t>$100 Genome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genome</t>
+  </si>
+  <si>
+    <t>Nanogenerator</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nano piezo electronics</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nano self-powered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ionic liquid battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper-based diagnostics</t>
+  </si>
+  <si>
+    <t>paper-based microfluidics</t>
+  </si>
+  <si>
+    <t>microfluidic paper-based analytical devices</t>
+  </si>
+  <si>
+    <t>openflow</t>
+  </si>
+  <si>
+    <t>network function virtualization</t>
+  </si>
+  <si>
+    <t>Green Concrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar energy</t>
+  </si>
+  <si>
+    <t>Light Trapping Photovoltaics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanoparticle technology</t>
+  </si>
+  <si>
+    <t>Two-in-One antibody</t>
+  </si>
+  <si>
+    <t>Dual-Specific Antibodies</t>
+  </si>
+  <si>
+    <t>bispecific antibodies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>social television</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implantable devices</t>
+  </si>
+  <si>
+    <t>biomedical electronics</t>
+  </si>
+  <si>
+    <t>mapreduce</t>
+  </si>
+  <si>
+    <t>Engineered Stem Cells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程干细胞</t>
+  </si>
+  <si>
+    <t>3D mobile phone</t>
+  </si>
+  <si>
+    <t>Solid-State Batteries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gestural Interfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesture recognition system</t>
+  </si>
+  <si>
+    <t>gesture-based computer</t>
+  </si>
+  <si>
+    <t>video streaming</t>
+  </si>
+  <si>
+    <t>sel4</t>
+  </si>
+  <si>
+    <t>automatic pilot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantum Wires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crash-Proof Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crash-Proof Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultra-Efficient Solar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Babel-Fish Earbuds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNAi Therapy</t>
+  </si>
+  <si>
+    <t>RAN Interference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>racetrack memory</t>
+  </si>
+  <si>
+    <t>tracetrake memorey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Track memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>Prenatal DNA Sequencing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-free fetal dna</t>
+  </si>
+  <si>
+    <t>next generation sequencing</t>
+  </si>
+  <si>
+    <t>Memory Implants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippocampus Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baxter: The Blue-Collar Robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot</t>
+  </si>
+  <si>
+    <t>Brain organ</t>
+  </si>
+  <si>
+    <t>Brain Organoids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌空中互联网项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinal cord injury reversing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce Carbon Natural Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2120,27 +2293,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF2B77C5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="2"/>
@@ -2155,8 +2307,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2166,6 +2325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2180,11 +2345,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2198,11 +2363,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2486,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2529,19 +2702,19 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2549,19 +2722,19 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2569,13 +2742,13 @@
         <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2583,22 +2756,22 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
+        <v>119</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2606,22 +2779,22 @@
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2629,22 +2802,22 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2652,28 +2825,28 @@
         <v>2001</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2681,22 +2854,22 @@
         <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2704,19 +2877,19 @@
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2724,22 +2897,22 @@
         <v>2001</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2747,22 +2920,22 @@
         <v>2003</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2770,16 +2943,16 @@
         <v>2003</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2787,22 +2960,22 @@
         <v>2003</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2810,16 +2983,16 @@
         <v>2003</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -2828,13 +3001,13 @@
         <v>2003</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2842,16 +3015,16 @@
         <v>2003</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2859,22 +3032,22 @@
         <v>2003</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2882,13 +3055,13 @@
         <v>2003</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2896,25 +3069,25 @@
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>212</v>
+      <c r="H20" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2922,16 +3095,16 @@
         <v>2003</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2939,13 +3112,13 @@
         <v>2004</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2953,19 +3126,19 @@
         <v>2004</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2973,10 +3146,16 @@
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>450</v>
+        <v>392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>636</v>
+      </c>
+      <c r="E24" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2984,13 +3163,13 @@
         <v>2004</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2998,19 +3177,19 @@
         <v>2004</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3018,13 +3197,13 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3034,13 +3213,13 @@
         <v>2004</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3050,13 +3229,13 @@
         <v>2004</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3066,13 +3245,13 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3082,13 +3261,13 @@
         <v>2004</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3098,19 +3277,19 @@
         <v>2005</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3118,19 +3297,19 @@
         <v>2005</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3138,22 +3317,22 @@
         <v>2005</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3161,13 +3340,13 @@
         <v>2005</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>406</v>
+        <v>359</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3175,16 +3354,16 @@
         <v>2005</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3192,13 +3371,13 @@
         <v>2005</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -3207,16 +3386,16 @@
         <v>2005</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3224,13 +3403,13 @@
         <v>2005</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -3239,13 +3418,13 @@
         <v>2005</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -3254,16 +3433,16 @@
         <v>2005</v>
       </c>
       <c r="B41" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C41" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D41" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E41" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3271,13 +3450,13 @@
         <v>2006</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>445</v>
+        <v>387</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3285,19 +3464,19 @@
         <v>2006</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3305,13 +3484,13 @@
         <v>2006</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E44" s="8"/>
     </row>
@@ -3320,22 +3499,22 @@
         <v>2006</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>537</v>
+        <v>524</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3343,13 +3522,13 @@
         <v>2006</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3357,16 +3536,16 @@
         <v>2006</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3374,19 +3553,19 @@
         <v>2006</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3394,16 +3573,16 @@
         <v>2006</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>544</v>
+        <v>474</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3411,22 +3590,22 @@
         <v>2006</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>547</v>
+        <v>534</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3434,16 +3613,16 @@
         <v>2006</v>
       </c>
       <c r="B51" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C51" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D51" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E51" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3451,19 +3630,19 @@
         <v>2007</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3471,22 +3650,22 @@
         <v>2007</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,16 +3673,16 @@
         <v>2007</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3511,19 +3690,19 @@
         <v>2007</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3531,16 +3710,16 @@
         <v>2007</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3548,25 +3727,25 @@
         <v>2007</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3574,19 +3753,19 @@
         <v>2007</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C58" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D58" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3594,16 +3773,16 @@
         <v>2007</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3611,13 +3790,13 @@
         <v>2007</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3625,16 +3804,16 @@
         <v>2007</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>572</v>
+        <v>488</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>560</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E61" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3642,13 +3821,13 @@
         <v>2008</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3656,19 +3835,19 @@
         <v>2008</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3676,16 +3855,16 @@
         <v>2008</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3693,22 +3872,22 @@
         <v>2008</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>422</v>
+        <v>370</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3716,16 +3895,16 @@
         <v>2008</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3733,16 +3912,16 @@
         <v>2008</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F67" s="4"/>
     </row>
@@ -3751,16 +3930,16 @@
         <v>2008</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3768,13 +3947,13 @@
         <v>2008</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E69" s="4"/>
     </row>
@@ -3783,39 +3962,39 @@
         <v>2008</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
         <v>2008</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3823,10 +4002,19 @@
         <v>2009</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3834,10 +4022,22 @@
         <v>2009</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>425</v>
+        <v>373</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3845,10 +4045,22 @@
         <v>2009</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>426</v>
+        <v>374</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3856,10 +4068,22 @@
         <v>2009</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>427</v>
+        <v>375</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3867,21 +4091,33 @@
         <v>2009</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="C76" t="s">
+        <v>597</v>
+      </c>
+      <c r="D76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>2009</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3889,21 +4125,37 @@
         <v>2009</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>507</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>2009</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>509</v>
+        <v>499</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3911,186 +4163,284 @@
         <v>2009</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11">
+        <v>500</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>2009</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>502</v>
+      </c>
+      <c r="C81" t="s">
+        <v>501</v>
+      </c>
+      <c r="D81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>2010</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>2010</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>2010</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>2010</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>2010</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>2010</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>2010</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>2010</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>2010</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>522</v>
+        <v>621</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
+        <v>620</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>2010</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>510</v>
+      </c>
+      <c r="C91" t="s">
+        <v>509</v>
+      </c>
+      <c r="D91" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>2011</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>2011</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>2011</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>2011</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>2011</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>442</v>
+        <v>433</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4098,10 +4448,16 @@
         <v>2011</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>444</v>
+        <v>434</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -4109,10 +4465,13 @@
         <v>2011</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4120,21 +4479,27 @@
         <v>2011</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+        <v>438</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
         <v>2011</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>524</v>
+      <c r="B100" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4148,16 +4513,16 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G101" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -4167,14 +4532,14 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>9</v>
+      <c r="C102" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E102" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
@@ -4188,7 +4553,7 @@
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -4205,7 +4570,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -4219,10 +4584,10 @@
         <v>15</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4247,19 +4612,19 @@
         <v>18</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G107" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -4287,13 +4652,13 @@
         <v>23</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4310,16 +4675,16 @@
         <v>25</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -4330,7 +4695,16 @@
         <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>27</v>
+        <v>642</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4338,16 +4712,16 @@
         <v>2013</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4355,19 +4729,19 @@
         <v>2013</v>
       </c>
       <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4375,13 +4749,16 @@
         <v>2013</v>
       </c>
       <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4389,36 +4766,37 @@
         <v>2013</v>
       </c>
       <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>35</v>
+        <v>645</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>249</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2013</v>
       </c>
       <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E116" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H116" s="4"/>
     </row>
@@ -4427,25 +4805,25 @@
         <v>2013</v>
       </c>
       <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4453,13 +4831,13 @@
         <v>2013</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>41</v>
+        <v>647</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>255</v>
+        <v>648</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4467,22 +4845,22 @@
         <v>2013</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4490,19 +4868,19 @@
         <v>2014</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4510,28 +4888,28 @@
         <v>2014</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4539,22 +4917,22 @@
         <v>2014</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4562,28 +4940,28 @@
         <v>2014</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I123" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4591,25 +4969,25 @@
         <v>2014</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4617,16 +4995,16 @@
         <v>2014</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4634,22 +5012,22 @@
         <v>2014</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4657,16 +5035,16 @@
         <v>2014</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4674,16 +5052,16 @@
         <v>2014</v>
       </c>
       <c r="B128" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4691,19 +5069,19 @@
         <v>2014</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4711,13 +5089,13 @@
         <v>2015</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -4725,19 +5103,19 @@
         <v>2015</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -4745,19 +5123,19 @@
         <v>2015</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -4765,10 +5143,10 @@
         <v>2015</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>66</v>
+        <v>651</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -4776,13 +5154,13 @@
         <v>2015</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D134" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -4790,19 +5168,19 @@
         <v>2015</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -4810,16 +5188,16 @@
         <v>2015</v>
       </c>
       <c r="B136" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -4827,16 +5205,16 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
+        <v>649</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -4844,22 +5222,22 @@
         <v>2015</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -4867,28 +5245,28 @@
         <v>2015</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -4896,19 +5274,19 @@
         <v>2016</v>
       </c>
       <c r="B140" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F140" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -4916,19 +5294,19 @@
         <v>2016</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F141" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -4936,28 +5314,28 @@
         <v>2016</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -4965,16 +5343,16 @@
         <v>2016</v>
       </c>
       <c r="B143" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -4982,13 +5360,13 @@
         <v>2016</v>
       </c>
       <c r="B144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4996,19 +5374,19 @@
         <v>2016</v>
       </c>
       <c r="B145" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F145" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5016,16 +5394,16 @@
         <v>2016</v>
       </c>
       <c r="B146" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5033,33 +5411,33 @@
         <v>2016</v>
       </c>
       <c r="B147" t="s">
-        <v>109</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2016</v>
       </c>
       <c r="B148" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5067,13 +5445,13 @@
         <v>2016</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5081,12 +5459,14 @@
         <v>2017</v>
       </c>
       <c r="B150" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D150" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>652</v>
+      </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
@@ -5095,16 +5475,16 @@
         <v>2017</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D151" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5112,13 +5492,16 @@
         <v>2017</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,13 +5509,13 @@
         <v>2017</v>
       </c>
       <c r="B153" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D153" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5140,19 +5523,19 @@
         <v>2017</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D154" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E154" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F154" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5160,16 +5543,16 @@
         <v>2017</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5177,13 +5560,13 @@
         <v>2017</v>
       </c>
       <c r="B156" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5191,16 +5574,16 @@
         <v>2017</v>
       </c>
       <c r="B157" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D157" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E157" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,16 +5591,16 @@
         <v>2017</v>
       </c>
       <c r="B158" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5225,13 +5608,13 @@
         <v>2017</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>94</v>
+        <v>653</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5239,13 +5622,13 @@
         <v>2018</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5253,13 +5636,13 @@
         <v>2018</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5267,19 +5650,19 @@
         <v>2018</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E162" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F162" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,13 +5670,13 @@
         <v>2018</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5301,19 +5684,19 @@
         <v>2018</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5321,16 +5704,16 @@
         <v>2018</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>158</v>
+        <v>635</v>
       </c>
       <c r="E165" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5338,10 +5721,13 @@
         <v>2018</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5349,16 +5735,16 @@
         <v>2018</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D167" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E167" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5366,16 +5752,16 @@
         <v>2018</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>157</v>
       </c>
       <c r="D168" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E168" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5383,13 +5769,13 @@
         <v>2018</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/关键词数据/突破技术的关键词.xlsx
+++ b/关键词数据/突破技术的关键词.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="656">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,10 +916,6 @@
   </si>
   <si>
     <t>mobile learning system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2193,33 +2189,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Brain organ</t>
+  </si>
+  <si>
+    <t>Brain Organoids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌空中互联网项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinal cord injury reversing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce Carbon Natural Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Baxter: The Blue-Collar Robot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Robot</t>
-  </si>
-  <si>
-    <t>Brain organ</t>
-  </si>
-  <si>
-    <t>Brain Organoids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌空中互联网项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spinal cord injury reversing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce Carbon Natural Gas</t>
+    <t>The Blue-Collar Robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartphone security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smartphone privacy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2659,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3112,13 +3117,13 @@
         <v>2004</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3126,19 +3131,19 @@
         <v>2004</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3146,16 +3151,16 @@
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
+        <v>635</v>
+      </c>
+      <c r="E24" t="s">
         <v>636</v>
-      </c>
-      <c r="E24" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3163,13 +3168,13 @@
         <v>2004</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3177,19 +3182,19 @@
         <v>2004</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3197,13 +3202,13 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3213,13 +3218,13 @@
         <v>2004</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3229,13 +3234,13 @@
         <v>2004</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3245,13 +3250,13 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>515</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3261,13 +3266,13 @@
         <v>2004</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3277,19 +3282,19 @@
         <v>2005</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3297,19 +3302,19 @@
         <v>2005</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3317,22 +3322,22 @@
         <v>2005</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3340,13 +3345,13 @@
         <v>2005</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3354,16 +3359,16 @@
         <v>2005</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3371,13 +3376,13 @@
         <v>2005</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -3386,16 +3391,16 @@
         <v>2005</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3403,13 +3408,13 @@
         <v>2005</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -3418,13 +3423,13 @@
         <v>2005</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -3433,16 +3438,16 @@
         <v>2005</v>
       </c>
       <c r="B41" t="s">
+        <v>517</v>
+      </c>
+      <c r="C41" t="s">
+        <v>467</v>
+      </c>
+      <c r="D41" t="s">
+        <v>467</v>
+      </c>
+      <c r="E41" t="s">
         <v>518</v>
-      </c>
-      <c r="C41" t="s">
-        <v>468</v>
-      </c>
-      <c r="D41" t="s">
-        <v>468</v>
-      </c>
-      <c r="E41" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,13 +3455,13 @@
         <v>2006</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3464,19 +3469,19 @@
         <v>2006</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>401</v>
-      </c>
       <c r="D43" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3484,13 +3489,13 @@
         <v>2006</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E44" s="8"/>
     </row>
@@ -3499,22 +3504,22 @@
         <v>2006</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="14" t="s">
         <v>524</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3522,13 +3527,13 @@
         <v>2006</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3536,16 +3541,16 @@
         <v>2006</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3553,19 +3558,19 @@
         <v>2006</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3573,16 +3578,16 @@
         <v>2006</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3590,22 +3595,22 @@
         <v>2006</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3613,16 +3618,16 @@
         <v>2006</v>
       </c>
       <c r="B51" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3630,19 +3635,19 @@
         <v>2007</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3650,22 +3655,22 @@
         <v>2007</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3673,16 +3678,16 @@
         <v>2007</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="D54" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3690,19 +3695,19 @@
         <v>2007</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3710,16 +3715,16 @@
         <v>2007</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>411</v>
-      </c>
       <c r="D56" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3727,25 +3732,25 @@
         <v>2007</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3753,19 +3758,19 @@
         <v>2007</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3773,16 +3778,16 @@
         <v>2007</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3790,13 +3795,13 @@
         <v>2007</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3804,16 +3809,16 @@
         <v>2007</v>
       </c>
       <c r="B61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E61" t="s">
         <v>560</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E61" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3821,13 +3826,13 @@
         <v>2008</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3835,19 +3840,19 @@
         <v>2008</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3855,16 +3860,16 @@
         <v>2008</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3872,22 +3877,22 @@
         <v>2008</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3895,16 +3900,16 @@
         <v>2008</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3912,16 +3917,16 @@
         <v>2008</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F67" s="4"/>
     </row>
@@ -3930,16 +3935,16 @@
         <v>2008</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3947,13 +3952,13 @@
         <v>2008</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E69" s="4"/>
     </row>
@@ -3962,13 +3967,13 @@
         <v>2008</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3976,25 +3981,25 @@
         <v>2008</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4002,19 +4007,19 @@
         <v>2009</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4022,22 +4027,22 @@
         <v>2009</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4045,22 +4050,22 @@
         <v>2009</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4068,22 +4073,22 @@
         <v>2009</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4091,13 +4096,13 @@
         <v>2009</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C76" t="s">
+        <v>596</v>
+      </c>
+      <c r="D76" t="s">
         <v>597</v>
-      </c>
-      <c r="D76" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,19 +4110,19 @@
         <v>2009</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>422</v>
-      </c>
       <c r="D77" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4125,16 +4130,16 @@
         <v>2009</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F78" s="3"/>
     </row>
@@ -4143,19 +4148,19 @@
         <v>2009</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4163,19 +4168,19 @@
         <v>2009</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4183,13 +4188,13 @@
         <v>2009</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4197,13 +4202,13 @@
         <v>2010</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4211,16 +4216,16 @@
         <v>2010</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4228,16 +4233,16 @@
         <v>2010</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4245,22 +4250,22 @@
         <v>2010</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4268,16 +4273,16 @@
         <v>2010</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D86" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4285,19 +4290,19 @@
         <v>2010</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4305,13 +4310,13 @@
         <v>2010</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E88" s="4"/>
     </row>
@@ -4320,16 +4325,16 @@
         <v>2010</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4337,16 +4342,16 @@
         <v>2010</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F90" s="8"/>
     </row>
@@ -4355,13 +4360,13 @@
         <v>2010</v>
       </c>
       <c r="B91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D91" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4369,13 +4374,13 @@
         <v>2011</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4383,19 +4388,19 @@
         <v>2011</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4403,16 +4408,16 @@
         <v>2011</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4420,13 +4425,13 @@
         <v>2011</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4434,13 +4439,13 @@
         <v>2011</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4448,16 +4453,16 @@
         <v>2011</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -4465,13 +4470,13 @@
         <v>2011</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4479,13 +4484,13 @@
         <v>2011</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4493,13 +4498,13 @@
         <v>2011</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>512</v>
-      </c>
       <c r="D100" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4533,7 +4538,7 @@
         <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>224</v>
@@ -4695,16 +4700,16 @@
         <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4758,7 +4763,7 @@
         <v>32</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4772,10 +4777,10 @@
         <v>34</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="F115" s="4"/>
     </row>
@@ -4834,10 +4839,10 @@
         <v>39</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4997,14 +5002,17 @@
       <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>277</v>
+        <v>654</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -5015,19 +5023,19 @@
         <v>51</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E126" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="G126" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -5044,7 +5052,7 @@
         <v>53</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -5058,10 +5066,10 @@
         <v>55</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5078,10 +5086,10 @@
         <v>57</v>
       </c>
       <c r="E129" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5095,7 +5103,7 @@
         <v>59</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5112,10 +5120,10 @@
         <v>61</v>
       </c>
       <c r="E131" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5132,10 +5140,10 @@
         <v>63</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5143,7 +5151,7 @@
         <v>2015</v>
       </c>
       <c r="B133" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>64</v>
@@ -5174,13 +5182,13 @@
         <v>68</v>
       </c>
       <c r="D135" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,7 +5205,7 @@
         <v>70</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5208,13 +5216,13 @@
         <v>71</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E137" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5231,13 +5239,13 @@
         <v>74</v>
       </c>
       <c r="E138" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="G138" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5254,19 +5262,19 @@
         <v>76</v>
       </c>
       <c r="E139" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="G139" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="H139" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="I139" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5283,10 +5291,10 @@
         <v>93</v>
       </c>
       <c r="E140" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F140" t="s">
         <v>303</v>
-      </c>
-      <c r="F140" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5303,10 +5311,10 @@
         <v>95</v>
       </c>
       <c r="E141" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F141" t="s">
         <v>305</v>
-      </c>
-      <c r="F141" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5323,19 +5331,19 @@
         <v>97</v>
       </c>
       <c r="E142" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="G142" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="H142" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="I142" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5352,7 +5360,7 @@
         <v>99</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5366,7 +5374,7 @@
         <v>101</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5380,13 +5388,13 @@
         <v>103</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E145" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F145" t="s">
         <v>314</v>
-      </c>
-      <c r="F145" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5400,10 +5408,10 @@
         <v>105</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,7 +5425,7 @@
         <v>107</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5431,13 +5439,13 @@
         <v>109</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E148" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="F148" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5451,7 +5459,7 @@
         <v>111</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5465,7 +5473,7 @@
         <v>78</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -5478,13 +5486,13 @@
         <v>79</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D151" t="s">
         <v>324</v>
       </c>
-      <c r="D151" t="s">
-        <v>325</v>
-      </c>
       <c r="E151" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5498,7 +5506,7 @@
         <v>81</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>81</v>
@@ -5512,10 +5520,10 @@
         <v>82</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D153" t="s">
         <v>327</v>
-      </c>
-      <c r="D153" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5529,13 +5537,13 @@
         <v>84</v>
       </c>
       <c r="D154" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E154" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5552,7 +5560,7 @@
         <v>86</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5563,10 +5571,10 @@
         <v>87</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5577,13 +5585,13 @@
         <v>88</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D157" t="s">
         <v>335</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>336</v>
-      </c>
-      <c r="E157" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5600,7 +5608,7 @@
         <v>90</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5611,10 +5619,10 @@
         <v>91</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5628,7 +5636,7 @@
         <v>150</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5659,10 +5667,10 @@
         <v>152</v>
       </c>
       <c r="E162" t="s">
+        <v>340</v>
+      </c>
+      <c r="F162" t="s">
         <v>341</v>
-      </c>
-      <c r="F162" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5676,7 +5684,7 @@
         <v>153</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5693,10 +5701,10 @@
         <v>154</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5710,10 +5718,10 @@
         <v>155</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E165" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5727,7 +5735,7 @@
         <v>156</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5738,13 +5746,13 @@
         <v>159</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D167" t="s">
         <v>344</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>345</v>
-      </c>
-      <c r="E167" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5758,10 +5766,10 @@
         <v>157</v>
       </c>
       <c r="D168" t="s">
+        <v>346</v>
+      </c>
+      <c r="E168" t="s">
         <v>347</v>
-      </c>
-      <c r="E168" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5772,10 +5780,10 @@
         <v>167</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169" t="s">
         <v>349</v>
-      </c>
-      <c r="D169" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
